--- a/7-Gráficos/20. Gráfico de Rosca - Material(1).xlsx
+++ b/7-Gráficos/20. Gráfico de Rosca - Material(1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8259183B-9BE8-42C7-B5DF-E8C7A213B74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EAFDE-9F37-4368-ACAB-CA8F2A7F7EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43EEEF4-D6CC-4C7C-A732-BF3BE2D1F75F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C43EEEF4-D6CC-4C7C-A732-BF3BE2D1F75F}"/>
   </bookViews>
   <sheets>
     <sheet name="GraficoDesenvolvimento" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,27 +30,48 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Desenvolvimento</t>
   </si>
   <si>
     <t>Restante</t>
   </si>
+  <si>
+    <t>Percentual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF9DC3E6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,10 +112,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -108,9 +130,15 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,10 +259,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,10 +425,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,6 +484,184 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4DEF-48B5-BC3D-F9E2B6E99584}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4DEF-48B5-BC3D-F9E2B6E99584}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Restante</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DEF-48B5-BC3D-F9E2B6E99584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="2800" b="1">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -549,6 +755,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1587,12 +1833,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$5" horiz="1" inc="5" max="100" page="5" val="65"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$5" horiz="1" inc="5" max="100" page="5" val="55"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$F$5" horiz="1" inc="5" max="100" page="5" val="50"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$F$5" horiz="1" inc="5" max="100" page="5" val="52"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$2" horiz="1" inc="5" max="100" page="5" val="75"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,15 +2407,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>346708</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>355</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>203016</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>56346</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1779,15 +2548,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>349527</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>355</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>212367</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>56346</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1797,7 +2566,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82C95E0-74E0-4F3A-B7E0-69987DB2369C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1986,7 +2755,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>65%</a:t>
+            <a:t>55%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2055,7 +2824,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>50%</a:t>
+            <a:t>52%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2075,10 +2844,188 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>345798</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>130038</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>347870</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>139562</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Scroll Bar 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35771E7E-C3AD-1662-8D2E-13B3F86D67C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35853</cdr:x>
+      <cdr:y>0.35791</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62791</cdr:x>
+      <cdr:y>0.61856</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Planilha1!$C$4">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09D97F6-85CB-546E-3006-8D5AF616A010}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1532283" y="932621"/>
+          <a:ext cx="1151282" cy="679174"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{65097EDC-824C-4138-80D6-DBA42025AB0E}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>75%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2116,7 +3063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2222,7 +3169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2364,7 +3311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2374,56 +3321,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B7B29-1A60-463F-800D-8EDCE5C96285}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.21875" customWidth="1"/>
-    <col min="6" max="7" width="16.21875" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <f>1-C3</f>
-        <v>0.35</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
         <f>1-G3</f>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
-    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4">
         <f>B5/100</f>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f>F5/100</f>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2446,9 +3393,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2462,15 +3409,86 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>350520</xdr:colOff>
+                    <xdr:colOff>352425</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B392EB2A-C45E-4196-B424-A932FECDC59B}">
+  <dimension ref="B2:J11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <f>100%-C4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B2/100</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId3" name="Scroll Bar 5">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
